--- a/Dummymappe2csv.xlsx
+++ b/Dummymappe2csv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Firma</t>
   </si>
@@ -402,7 +402,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:Q4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,9 +538,6 @@
       <c r="K3">
         <v>702901</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
       <c r="M3">
         <v>2</v>
       </c>
@@ -565,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Dummymappe2csv.xlsx
+++ b/Dummymappe2csv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Firma</t>
   </si>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,6 +565,34 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1002000</v>
+      </c>
+      <c r="B5">
+        <v>555555</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1002000</v>
+      </c>
+      <c r="B6">
+        <v>555555</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dummymappe2csv.xlsx
+++ b/Dummymappe2csv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Firma</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Pan les</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,6 +596,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dummymappe2csv.xlsx
+++ b/Dummymappe2csv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Firma</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>Pan pes</t>
-  </si>
-  <si>
-    <t>GV pro Stunde</t>
-  </si>
-  <si>
-    <t>Zuschlag Nacht</t>
   </si>
   <si>
     <t>Pan les</t>
@@ -405,7 +399,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="L3" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,9 +491,6 @@
       <c r="K2">
         <v>610001</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
       <c r="M2">
         <v>39</v>
       </c>
@@ -559,13 +550,10 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -576,32 +564,35 @@
         <v>555555</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1002000</v>
-      </c>
       <c r="B6">
         <v>555555</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1002000</v>
+      </c>
+      <c r="B7">
+        <v>3333</v>
+      </c>
       <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Dummymappe2csv.xlsx
+++ b/Dummymappe2csv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Firma</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>ano</t>
+  </si>
+  <si>
+    <t>GV pro Stunde</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L2:L3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,6 +558,9 @@
       <c r="D4">
         <v>8</v>
       </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -571,6 +577,9 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1002000</v>
+      </c>
       <c r="B6">
         <v>555555</v>
       </c>

--- a/Dummymappe2csv.xlsx
+++ b/Dummymappe2csv.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">

--- a/Dummymappe2csv.xlsx
+++ b/Dummymappe2csv.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Firma</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>GV pro Stunde</t>
+  </si>
+  <si>
+    <t>AG Pauschsteuer</t>
+  </si>
+  <si>
+    <t>AN Arbeitslosenve</t>
   </si>
 </sst>
 </file>
@@ -97,15 +103,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,12 +125,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -402,7 +429,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,11 +562,14 @@
       <c r="K3">
         <v>702901</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="O3">
         <v>13.1</v>
@@ -575,6 +605,12 @@
       <c r="D5">
         <v>4</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -603,8 +639,15 @@
       <c r="D7">
         <v>3</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <v>8.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>